--- a/Data/ReferenceCase/StorageCAPEX.xlsx
+++ b/Data/ReferenceCase/StorageCAPEX.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee65a08843967445/Desktop/Master Ordner Konsti/03_Studium/Master/Sustainable Energy - Energy Systems Analysis/Masterarbeit/MasterThesis/Data/ReferenceCase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee65a08843967445/Desktop/Master Ordner Konsti/03_Studium/Master/Sustainable Energy - Energy Systems Analysis/Masterarbeit/MasterThesis/Data/Reference Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{C07896D1-B9AB-4068-9B8D-9D791C0809D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A88BA562-76C7-45FD-A919-5A48B5AA58D2}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{C07896D1-B9AB-4068-9B8D-9D791C0809D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1602302-19A2-45FF-ACD3-AEA3687624C3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{706CCCE1-668A-42AD-A820-FAE74361E941}"/>
   </bookViews>

--- a/Data/ReferenceCase/StorageCAPEX.xlsx
+++ b/Data/ReferenceCase/StorageCAPEX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee65a08843967445/Desktop/Master Ordner Konsti/03_Studium/Master/Sustainable Energy - Energy Systems Analysis/Masterarbeit/MasterThesis/Data/Reference Case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee65a08843967445/Desktop/Master Ordner Konsti/03_Studium/Master/Sustainable Energy - Energy Systems Analysis/Masterarbeit/MasterThesis/Data/ReferenceCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{C07896D1-B9AB-4068-9B8D-9D791C0809D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1602302-19A2-45FF-ACD3-AEA3687624C3}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{C07896D1-B9AB-4068-9B8D-9D791C0809D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74F9DADC-FCCB-43D8-B60D-BCFD52EB32C0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{706CCCE1-668A-42AD-A820-FAE74361E941}"/>
   </bookViews>
@@ -501,11 +501,11 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="C2">
         <f>0.02*B2</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -519,7 +519,7 @@
       </c>
       <c r="G2" s="4">
         <f>(B2*F2+C2)*1000000</f>
-        <v>34902686.282773301</v>
+        <v>29085571.902311087</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">

--- a/Data/ReferenceCase/StorageCAPEX.xlsx
+++ b/Data/ReferenceCase/StorageCAPEX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee65a08843967445/Desktop/Master Ordner Konsti/03_Studium/Master/Sustainable Energy - Energy Systems Analysis/Masterarbeit/MasterThesis/Data/ReferenceCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{C07896D1-B9AB-4068-9B8D-9D791C0809D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74F9DADC-FCCB-43D8-B60D-BCFD52EB32C0}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{C07896D1-B9AB-4068-9B8D-9D791C0809D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E02BA3A-FBC2-4188-91D0-1ED3984BB441}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{706CCCE1-668A-42AD-A820-FAE74361E941}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Technology</t>
   </si>
@@ -59,10 +59,13 @@
     <t>Capital Recovery Factor</t>
   </si>
   <si>
-    <t>OPEX [EUR/kW]</t>
-  </si>
-  <si>
     <t>Annualized Investment Cost [EUR/GWh]</t>
+  </si>
+  <si>
+    <t>OPEX [EUR/kWh]</t>
+  </si>
+  <si>
+    <t>OPEX [EUR/GWh]</t>
   </si>
 </sst>
 </file>
@@ -117,12 +120,15 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -459,21 +465,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB55EF58-5C5B-4CCC-929F-394C9D573DFE}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="7" max="7" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.36328125" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,71 +488,70 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C2">
-        <f>0.02*B2</f>
-        <v>5</v>
-      </c>
-      <c r="D2">
+        <f>0.03*B2</f>
+        <v>7.14</v>
+      </c>
+      <c r="D2" s="7">
+        <f>C2*1000000</f>
+        <v>7140000</v>
+      </c>
+      <c r="E2">
         <v>15</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="5">
         <v>0.05</v>
       </c>
-      <c r="F2" s="1">
-        <f>(E2*(1+E2)^D2)/(((1+E2)^D2)-1)</f>
+      <c r="G2" s="6">
+        <f>(F2*(1+F2)^E2)/(((1+F2)^E2)-1)</f>
         <v>9.6342287609244348E-2</v>
       </c>
-      <c r="G2" s="4">
-        <f>(B2*F2+C2)*1000000</f>
-        <v>29085571.902311087</v>
+      <c r="H2" s="4">
+        <f>(B2*G2)*1000000</f>
+        <v>22929464.451000154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>800</v>
-      </c>
       <c r="C3">
-        <f>0.02*B3</f>
-        <v>16</v>
-      </c>
-      <c r="D3" s="2">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="1">
-        <f>(E3*(1+E3)^D3)/(((1+E3)^D3)-1)</f>
-        <v>8.0242587190691314E-2</v>
-      </c>
-      <c r="G3" s="4">
-        <f>(B3*F3+C3)*1000000</f>
-        <v>80194069.752553046</v>
+        <v>12.4</v>
+      </c>
+      <c r="D3" s="7">
+        <f>C3*1000000</f>
+        <v>12400000</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ReferenceCase/StorageCAPEX.xlsx
+++ b/Data/ReferenceCase/StorageCAPEX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee65a08843967445/Desktop/Master Ordner Konsti/03_Studium/Master/Sustainable Energy - Energy Systems Analysis/Masterarbeit/MasterThesis/Data/ReferenceCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{C07896D1-B9AB-4068-9B8D-9D791C0809D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E02BA3A-FBC2-4188-91D0-1ED3984BB441}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{C07896D1-B9AB-4068-9B8D-9D791C0809D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F47AC54-08C4-40A0-8194-20DB0309D0E5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{706CCCE1-668A-42AD-A820-FAE74361E941}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,15 +511,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C2">
         <f>0.03*B2</f>
-        <v>7.14</v>
+        <v>8.25</v>
       </c>
       <c r="D2" s="7">
         <f>C2*1000000</f>
-        <v>7140000</v>
+        <v>8250000</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -533,7 +533,7 @@
       </c>
       <c r="H2" s="4">
         <f>(B2*G2)*1000000</f>
-        <v>22929464.451000154</v>
+        <v>26494129.092542194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
